--- a/College-labor-data.xlsx
+++ b/College-labor-data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nebiu\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VS Code\Undergraduate_unemployment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E450C793-EB21-47C2-ADBF-306348003B8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F70278B-E9E8-4E5A-AD17-BEC31B5A72C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1390" yWindow="2860" windowWidth="19200" windowHeight="11170" activeTab="4" xr2:uid="{49899559-9992-457B-9D47-E2EE85A9B7DA}"/>
+    <workbookView xWindow="1730" yWindow="3200" windowWidth="19200" windowHeight="11170" activeTab="1" xr2:uid="{49899559-9992-457B-9D47-E2EE85A9B7DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="103">
   <si>
     <r>
       <rPr>
@@ -174,9 +174,6 @@
   </si>
   <si>
     <t>High school diploma: median</t>
-  </si>
-  <si>
-    <t>Sources: U.S. Census Bureau, American Community Survey (IPUMS); U.S. Department of Labor, O*NET.</t>
   </si>
   <si>
     <t>Major</t>
@@ -828,390 +825,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>151944</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1651000" cy="638631"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="Logo of the Federal Reserve Bank of New York. Eagle with circle including words Federal Reserve Bank of New York light colored on dark blue background.">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12B6909C-5D22-4C08-B296-D7059F163735}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="151944"/>
-          <a:ext cx="1651000" cy="638631"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>30163</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1670051" cy="727792"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="Logo of the Federal Reserve Bank of New York. Eagle with circle including words Federal Reserve Bank of New York light colored on dark blue background.">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED73F4F8-A8D0-4F8E-A594-788B0412C1FD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="30163"/>
-          <a:ext cx="1670051" cy="727792"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>151944</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1651000" cy="638631"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="Logo of the Federal Reserve Bank of New York. Eagle with circle including words Federal Reserve Bank of New York light colored on dark blue background.">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D62FC0C2-8AA9-4AE2-B80D-608D424A7B0E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="151944"/>
-          <a:ext cx="1651000" cy="638631"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>30163</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1670051" cy="727792"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="Logo of the Federal Reserve Bank of New York. Eagle with circle including words Federal Reserve Bank of New York light colored on dark blue background.">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C22889D-85FF-4FB3-8242-C220663A014B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="30163"/>
-          <a:ext cx="1670051" cy="727792"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>151944</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1651000" cy="638631"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="Logo of the Federal Reserve Bank of New York. Eagle with circle including words Federal Reserve Bank of New York light colored on dark blue background.">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99839641-57E0-48B9-84FD-C0023653158F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="151944"/>
-          <a:ext cx="1651000" cy="638631"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>30163</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1670051" cy="727792"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE649749-D02F-4AB2-A39C-A60CD39544B0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="30163"/>
-          <a:ext cx="1670051" cy="727792"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>151944</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1651000" cy="638631"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="Logo of the Federal Reserve Bank of New York. Eagle with circle including words Federal Reserve Bank of New York light colored on dark blue background.">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F69EFFF6-1EA4-46CF-B536-B9878614E1B1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="151944"/>
-          <a:ext cx="1651000" cy="638631"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>30163</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1670051" cy="727792"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56D549CB-FE25-4855-91C1-5926A6112E8A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="30163"/>
-          <a:ext cx="1670051" cy="727792"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -2349,8 +1962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D291063B-15F0-4B29-99D7-4752DE02940B}">
   <dimension ref="A1:I442"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A10" sqref="A1:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2359,8 +1972,8 @@
     <col min="2" max="24" width="18.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="32" t="s">
         <v>0</v>
       </c>
@@ -2372,7 +1985,7 @@
       <c r="H2" s="32"/>
       <c r="I2" s="32"/>
     </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="32"/>
       <c r="C3" s="32"/>
       <c r="D3" s="32"/>
@@ -2382,26 +1995,27 @@
       <c r="H3" s="32"/>
       <c r="I3" s="32"/>
     </row>
-    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="1:9" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:9" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="15"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>6</v>
       </c>
     </row>
+    <row r="10" spans="1:9" ht="28" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="22" t="s">
         <v>10</v>
@@ -9667,7 +9281,6 @@
   <headerFooter>
     <oddHeader>&amp;L&amp;"Calibri"&amp;11&amp;K000000NONCONFIDENTIAL // EXTERNAL&amp;1#</oddHeader>
   </headerFooter>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -9675,8 +9288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74B7735F-8FF4-47A3-A2F0-2EB980CA6520}">
   <dimension ref="A1:I443"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A10" sqref="A1:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9685,8 +9298,8 @@
     <col min="2" max="26" width="18.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="32" t="s">
         <v>0</v>
       </c>
@@ -9698,7 +9311,7 @@
       <c r="H2" s="32"/>
       <c r="I2" s="32"/>
     </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="32"/>
       <c r="C3" s="32"/>
       <c r="D3" s="32"/>
@@ -9708,23 +9321,25 @@
       <c r="H3" s="32"/>
       <c r="I3" s="32"/>
     </row>
-    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="1:9" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>15</v>
       </c>
     </row>
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="22" t="s">
         <v>10</v>
@@ -14434,7 +14049,6 @@
   <headerFooter>
     <oddHeader>&amp;L&amp;"Calibri"&amp;11&amp;K000000NONCONFIDENTIAL // EXTERNAL&amp;1#</oddHeader>
   </headerFooter>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -14442,8 +14056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90C5549B-7618-4FBE-B899-46D394C56BFB}">
   <dimension ref="A1:CQ55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection sqref="A1:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14452,8 +14066,8 @@
     <col min="2" max="21" width="33.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:95" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:95" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:95" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="32" t="s">
         <v>0</v>
       </c>
@@ -14465,7 +14079,7 @@
       <c r="H2" s="32"/>
       <c r="I2" s="32"/>
     </row>
-    <row r="3" spans="1:95" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:95" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="32"/>
       <c r="C3" s="32"/>
       <c r="D3" s="32"/>
@@ -14475,29 +14089,29 @@
       <c r="H3" s="32"/>
       <c r="I3" s="32"/>
     </row>
-    <row r="4" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:95" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:95" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:95" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:95" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:95" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="17"/>
     </row>
-    <row r="7" spans="1:95" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:95" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="17"/>
     </row>
-    <row r="8" spans="1:95" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:95" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BN8" s="18"/>
       <c r="BO8" s="18"/>
     </row>
-    <row r="9" spans="1:95" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:95" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -14596,7 +14210,7 @@
       <c r="CP9" s="19"/>
       <c r="CQ9" s="19"/>
     </row>
-    <row r="10" spans="1:95" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:95" hidden="1" x14ac:dyDescent="0.35">
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
@@ -15930,7 +15544,6 @@
   <headerFooter>
     <oddHeader>&amp;L&amp;"Calibri"&amp;11&amp;K000000NONCONFIDENTIAL // EXTERNAL&amp;1#</oddHeader>
   </headerFooter>
-  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -15938,8 +15551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC153014-1856-4DC6-A04A-D1277ACC50FE}">
   <dimension ref="A1:CQ85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection sqref="A1:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15949,11 +15562,9 @@
     <col min="17" max="36" width="18.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:95" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="32" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="1:95" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:95" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="32"/>
       <c r="C2" s="32"/>
       <c r="D2" s="32"/>
       <c r="E2" s="32"/>
@@ -15962,7 +15573,7 @@
       <c r="H2" s="32"/>
       <c r="I2" s="32"/>
     </row>
-    <row r="3" spans="1:95" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:95" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="32"/>
       <c r="C3" s="32"/>
       <c r="D3" s="32"/>
@@ -15972,32 +15583,22 @@
       <c r="H3" s="32"/>
       <c r="I3" s="32"/>
     </row>
-    <row r="4" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:95" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:95" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:95" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:95" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:95" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="17"/>
     </row>
-    <row r="7" spans="1:95" x14ac:dyDescent="0.35">
-      <c r="A7" s="17" t="s">
-        <v>9</v>
-      </c>
+    <row r="7" spans="1:95" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="17"/>
       <c r="B7" s="17"/>
     </row>
-    <row r="8" spans="1:95" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>102</v>
-      </c>
+    <row r="8" spans="1:95" hidden="1" x14ac:dyDescent="0.35">
       <c r="BN8" s="18"/>
       <c r="BO8" s="18"/>
     </row>
-    <row r="9" spans="1:95" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
+    <row r="9" spans="1:95" hidden="1" x14ac:dyDescent="0.35">
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
@@ -16093,7 +15694,7 @@
       <c r="CP9" s="19"/>
       <c r="CQ9" s="19"/>
     </row>
-    <row r="10" spans="1:95" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:95" hidden="1" x14ac:dyDescent="0.35">
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
@@ -16191,22 +15792,22 @@
     </row>
     <row r="11" spans="1:95" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="C11" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="D11" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="E11" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="F11" s="22" t="s">
         <v>26</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>27</v>
       </c>
       <c r="G11" s="19"/>
       <c r="N11" s="19"/>
@@ -16294,7 +15895,7 @@
     </row>
     <row r="12" spans="1:95" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" s="24">
         <v>1.2490000000000001</v>
@@ -16314,7 +15915,7 @@
     </row>
     <row r="13" spans="1:95" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" s="24">
         <v>1.026</v>
@@ -16334,7 +15935,7 @@
     </row>
     <row r="14" spans="1:95" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" s="24">
         <v>2.5819999999999999</v>
@@ -16354,7 +15955,7 @@
     </row>
     <row r="15" spans="1:95" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15" s="24">
         <v>4.2839999999999998</v>
@@ -16374,7 +15975,7 @@
     </row>
     <row r="16" spans="1:95" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="24">
         <v>2.5649999999999999</v>
@@ -16394,7 +15995,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="24">
         <v>4.4969999999999999</v>
@@ -16414,7 +16015,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18" s="24">
         <v>4.3559999999999999</v>
@@ -16434,7 +16035,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19" s="24">
         <v>3.3029999999999999</v>
@@ -16454,7 +16055,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B20" s="24">
         <v>3.5430000000000001</v>
@@ -16474,7 +16075,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B21" s="24">
         <v>5.6040000000000001</v>
@@ -16494,7 +16095,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B22" s="24">
         <v>6.056</v>
@@ -16514,7 +16115,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B23" s="24">
         <v>3.31</v>
@@ -16534,7 +16135,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B24" s="24">
         <v>1.298</v>
@@ -16554,7 +16155,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B25" s="24">
         <v>1.7889999999999999</v>
@@ -16574,7 +16175,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B26" s="24">
         <v>2.8820000000000001</v>
@@ -16594,7 +16195,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B27" s="24">
         <v>0.95099999999999996</v>
@@ -16614,7 +16215,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B28" s="24">
         <v>2.48</v>
@@ -16634,7 +16235,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B29" s="24">
         <v>2.4089999999999998</v>
@@ -16654,7 +16255,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B30" s="24">
         <v>1.397</v>
@@ -16674,7 +16275,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B31" s="24">
         <v>2.024</v>
@@ -16694,7 +16295,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B32" s="24">
         <v>1.048</v>
@@ -16714,7 +16315,7 @@
     </row>
     <row r="33" spans="1:95" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B33" s="24">
         <v>7.5380000000000003</v>
@@ -16734,7 +16335,7 @@
     </row>
     <row r="34" spans="1:95" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B34" s="24">
         <v>2.15</v>
@@ -16754,7 +16355,7 @@
     </row>
     <row r="35" spans="1:95" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B35" s="24">
         <v>4.641</v>
@@ -16774,7 +16375,7 @@
     </row>
     <row r="36" spans="1:95" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B36" s="24">
         <v>1.5289999999999999</v>
@@ -16794,7 +16395,7 @@
     </row>
     <row r="37" spans="1:95" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B37" s="24">
         <v>3.375</v>
@@ -16814,7 +16415,7 @@
     </row>
     <row r="38" spans="1:95" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B38" s="24">
         <v>4.04</v>
@@ -16836,7 +16437,7 @@
     </row>
     <row r="39" spans="1:95" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B39" s="24">
         <v>2.694</v>
@@ -16938,7 +16539,7 @@
     </row>
     <row r="40" spans="1:95" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B40" s="24">
         <v>4.9429999999999996</v>
@@ -17040,7 +16641,7 @@
     </row>
     <row r="41" spans="1:95" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B41" s="24">
         <v>5.2530000000000001</v>
@@ -17142,7 +16743,7 @@
     </row>
     <row r="42" spans="1:95" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B42" s="24">
         <v>3.04</v>
@@ -17162,7 +16763,7 @@
     </row>
     <row r="43" spans="1:95" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B43" s="24">
         <v>3.282</v>
@@ -17182,7 +16783,7 @@
     </row>
     <row r="44" spans="1:95" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B44" s="24">
         <v>3.069</v>
@@ -17202,7 +16803,7 @@
     </row>
     <row r="45" spans="1:95" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B45" s="24">
         <v>3.7480000000000002</v>
@@ -17222,7 +16823,7 @@
     </row>
     <row r="46" spans="1:95" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B46" s="24">
         <v>3.0030000000000001</v>
@@ -17242,7 +16843,7 @@
     </row>
     <row r="47" spans="1:95" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B47" s="24">
         <v>0.441</v>
@@ -17262,7 +16863,7 @@
     </row>
     <row r="48" spans="1:95" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B48" s="24">
         <v>3.722</v>
@@ -17282,7 +16883,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B49" s="24">
         <v>3.18</v>
@@ -17302,7 +16903,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B50" s="24">
         <v>3.0720000000000001</v>
@@ -17322,7 +16923,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B51" s="24">
         <v>6.093</v>
@@ -17342,7 +16943,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B52" s="24">
         <v>1.4570000000000001</v>
@@ -17362,7 +16963,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B53" s="24">
         <v>7.7690000000000001</v>
@@ -17382,7 +16983,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B54" s="24">
         <v>2.8290000000000002</v>
@@ -17402,7 +17003,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B55" s="24">
         <v>3.6030000000000002</v>
@@ -17422,7 +17023,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B56" s="24">
         <v>2.9169999999999998</v>
@@ -17442,7 +17043,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B57" s="24">
         <v>5.5129999999999999</v>
@@ -17462,7 +17063,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B58" s="24">
         <v>1.73</v>
@@ -17482,7 +17083,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B59" s="24">
         <v>9.42</v>
@@ -17502,7 +17103,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B60" s="24">
         <v>4.9409999999999998</v>
@@ -17522,7 +17123,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B61" s="24">
         <v>3.323</v>
@@ -17542,7 +17143,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B62" s="24">
         <v>4.7320000000000002</v>
@@ -17562,7 +17163,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B63" s="24">
         <v>6.7290000000000001</v>
@@ -17582,7 +17183,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B64" s="24">
         <v>3.3290000000000002</v>
@@ -17602,7 +17203,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B65" s="24">
         <v>0.69099999999999995</v>
@@ -17622,7 +17223,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B66" s="24">
         <v>3.0470000000000002</v>
@@ -17642,7 +17243,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B67" s="24">
         <v>7.0119999999999996</v>
@@ -17662,7 +17263,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B68" s="24">
         <v>2.718</v>
@@ -17682,7 +17283,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B69" s="24">
         <v>7.2430000000000003</v>
@@ -17702,7 +17303,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B70" s="24">
         <v>2.2410000000000001</v>
@@ -17722,7 +17323,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B71" s="24">
         <v>2.823</v>
@@ -17742,7 +17343,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B72" s="24">
         <v>1.4219999999999999</v>
@@ -17762,7 +17363,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B73" s="24">
         <v>3.1829999999999998</v>
@@ -17782,7 +17383,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B74" s="24">
         <v>3.07</v>
@@ -17802,7 +17403,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B75" s="24">
         <v>3.7330000000000001</v>
@@ -17822,7 +17423,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B76" s="24">
         <v>1.8819999999999999</v>
@@ -17842,7 +17443,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B77" s="24">
         <v>4.0030000000000001</v>
@@ -17862,7 +17463,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B78" s="24">
         <v>2.3919999999999999</v>
@@ -17882,7 +17483,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B79" s="24">
         <v>3.7389999999999999</v>
@@ -17902,7 +17503,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B80" s="24">
         <v>3.7040000000000002</v>
@@ -17922,7 +17523,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B81" s="24">
         <v>4.9279999999999999</v>
@@ -17942,7 +17543,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B82" s="24">
         <v>4.6180000000000003</v>
@@ -17962,7 +17563,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B83" s="24">
         <v>1.9390000000000001</v>
@@ -17982,7 +17583,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B84" s="24">
         <v>4.9829999999999997</v>
@@ -18002,7 +17603,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B85" s="24">
         <v>3.64</v>
@@ -18024,39 +17625,15 @@
   <mergeCells count="1">
     <mergeCell ref="B2:I3"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" xr:uid="{29221C10-C995-4B26-8BBD-C11229E142A8}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"Calibri"&amp;11&amp;K000000NONCONFIDENTIAL // EXTERNAL&amp;1#</oddHeader>
   </headerFooter>
-  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cca263d1-9b13-4f66-b23a-9bae0d2e6668">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="d64264fa-5603-4e4e-a2f4-32f4724a08c4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100647FB89008651F4A832EF1769364FCC5" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7aa16c2e410a0c6166341027a1a9df40">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cca263d1-9b13-4f66-b23a-9bae0d2e6668" xmlns:ns3="145e3329-cf7c-456f-ae15-009405ec5798" xmlns:ns4="d64264fa-5603-4e4e-a2f4-32f4724a08c4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3318a1d88262085b580bdb863cf9c762" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="cca263d1-9b13-4f66-b23a-9bae0d2e6668"/>
@@ -18296,10 +17873,42 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cca263d1-9b13-4f66-b23a-9bae0d2e6668">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="d64264fa-5603-4e4e-a2f4-32f4724a08c4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE206006-986A-49DE-BCA2-F3FDE560AB67}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08327A63-8B29-4F0F-9D8B-C8F7E2115303}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="cca263d1-9b13-4f66-b23a-9bae0d2e6668"/>
+    <ds:schemaRef ds:uri="145e3329-cf7c-456f-ae15-009405ec5798"/>
+    <ds:schemaRef ds:uri="d64264fa-5603-4e4e-a2f4-32f4724a08c4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -18325,21 +17934,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08327A63-8B29-4F0F-9D8B-C8F7E2115303}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE206006-986A-49DE-BCA2-F3FDE560AB67}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="cca263d1-9b13-4f66-b23a-9bae0d2e6668"/>
-    <ds:schemaRef ds:uri="145e3329-cf7c-456f-ae15-009405ec5798"/>
-    <ds:schemaRef ds:uri="d64264fa-5603-4e4e-a2f4-32f4724a08c4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>